--- a/va_facility_data_2025-02-20/Hackensack VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Hackensack%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Hackensack VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Hackensack%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="Ra6613ae8598240bf89798382bf5e8306"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R7afe60050f75418c8624f887e9ae0d0a"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="Rac29dd0834f549fa944a9ebb1c130350"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R25d57e4d20a34dfab1923faad2a21308"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Rabf82c58ed084b0f9fb266186b559dd6"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="R8a642fda1fd4451894dfa4871773095a"/>
   </x:sheets>
 </x:workbook>
 </file>
